--- a/데이터/마지막 희망/Wonju.xlsx
+++ b/데이터/마지막 희망/Wonju.xlsx
@@ -369,11 +369,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="469833744"/>
-        <c:axId val="469834136"/>
+        <c:axId val="201825888"/>
+        <c:axId val="201826280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="469833744"/>
+        <c:axId val="201825888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -430,12 +430,12 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469834136"/>
+        <c:crossAx val="201826280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="469834136"/>
+        <c:axId val="201826280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -492,7 +492,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469833744"/>
+        <c:crossAx val="201825888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -771,11 +771,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="467877376"/>
-        <c:axId val="470928728"/>
+        <c:axId val="201827848"/>
+        <c:axId val="201830984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="467877376"/>
+        <c:axId val="201827848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -832,12 +832,12 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470928728"/>
+        <c:crossAx val="201830984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="470928728"/>
+        <c:axId val="201830984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -894,7 +894,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467877376"/>
+        <c:crossAx val="201827848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1166,11 +1166,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="471267904"/>
-        <c:axId val="467876984"/>
+        <c:axId val="410804208"/>
+        <c:axId val="410806168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="471267904"/>
+        <c:axId val="410804208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1227,12 +1227,12 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467876984"/>
+        <c:crossAx val="410806168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="467876984"/>
+        <c:axId val="410806168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1289,7 +1289,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471267904"/>
+        <c:crossAx val="410804208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1561,11 +1561,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="258232384"/>
-        <c:axId val="258237088"/>
+        <c:axId val="468697272"/>
+        <c:axId val="468703152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="258232384"/>
+        <c:axId val="468697272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1622,12 +1622,12 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258237088"/>
+        <c:crossAx val="468703152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="258237088"/>
+        <c:axId val="468703152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1684,7 +1684,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258232384"/>
+        <c:crossAx val="468697272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4372,7 +4372,7 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4481,7 +4481,7 @@
         <v>26.94</v>
       </c>
       <c r="M3">
-        <f>ABS(I3-L3)</f>
+        <f t="shared" ref="M3:M9" si="0">ABS(I3-L3)</f>
         <v>0.24000000000000199</v>
       </c>
       <c r="N3" s="6">
@@ -4521,7 +4521,7 @@
         <v>27.04</v>
       </c>
       <c r="M4">
-        <f>ABS(I4-L4)</f>
+        <f t="shared" si="0"/>
         <v>0.14000000000000057</v>
       </c>
     </row>
@@ -4557,7 +4557,7 @@
         <v>27.14</v>
       </c>
       <c r="M5">
-        <f>ABS(I5-L5)</f>
+        <f t="shared" si="0"/>
         <v>2.0599999999999987</v>
       </c>
     </row>
@@ -4593,7 +4593,7 @@
         <v>27.44</v>
       </c>
       <c r="M6">
-        <f>ABS(I6-L6)</f>
+        <f t="shared" si="0"/>
         <v>1.759999999999998</v>
       </c>
     </row>
@@ -4629,7 +4629,7 @@
         <v>27.76</v>
       </c>
       <c r="M7">
-        <f>ABS(I7-L7)</f>
+        <f t="shared" si="0"/>
         <v>1.7600000000000016</v>
       </c>
     </row>
@@ -4665,7 +4665,7 @@
         <v>28.15</v>
       </c>
       <c r="M8">
-        <f>ABS(I8-L8)</f>
+        <f t="shared" si="0"/>
         <v>0.64999999999999858</v>
       </c>
     </row>
@@ -4701,7 +4701,7 @@
         <v>28.05</v>
       </c>
       <c r="M9">
-        <f>ABS(I9-L9)</f>
+        <f t="shared" si="0"/>
         <v>2.8499999999999979</v>
       </c>
     </row>
@@ -4710,7 +4710,7 @@
         <v>2016</v>
       </c>
       <c r="B10">
-        <f t="shared" ref="B10:B29" si="0">0.029 * A10 - 55.514</f>
+        <f t="shared" ref="B10:B24" si="1">0.029 * A10 - 55.514</f>
         <v>2.9500000000000028</v>
       </c>
       <c r="C10" s="6">
@@ -4737,19 +4737,19 @@
         <v>2017</v>
       </c>
       <c r="B11" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.9789999999999992</v>
       </c>
       <c r="C11" s="6">
-        <f t="shared" ref="C11:C19" si="1" xml:space="preserve"> 1.5131*A11- 3026.4</f>
+        <f t="shared" ref="C11:C19" si="2" xml:space="preserve"> 1.5131*A11- 3026.4</f>
         <v>25.522699999999531</v>
       </c>
       <c r="E11" s="6">
-        <f t="shared" ref="E11:E19" si="2" xml:space="preserve"> 0.4762*A11 - 869.86</f>
+        <f t="shared" ref="E11:E19" si="3" xml:space="preserve"> 0.4762*A11 - 869.86</f>
         <v>90.635400000000004</v>
       </c>
       <c r="G11">
-        <f t="shared" ref="G11:G19" si="3" xml:space="preserve"> 0.5*A11 - 920</f>
+        <f t="shared" ref="G11:G19" si="4" xml:space="preserve"> 0.5*A11 - 920</f>
         <v>88.5</v>
       </c>
       <c r="I11" s="6">
@@ -4761,19 +4761,19 @@
         <v>2018</v>
       </c>
       <c r="B12" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.0080000000000027</v>
       </c>
       <c r="C12" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27.035799999999654</v>
       </c>
       <c r="E12" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>91.111600000000067</v>
       </c>
       <c r="G12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>89</v>
       </c>
       <c r="I12" s="6">
@@ -4785,19 +4785,19 @@
         <v>2019</v>
       </c>
       <c r="B13" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.036999999999999</v>
       </c>
       <c r="C13" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28.548899999999776</v>
       </c>
       <c r="E13" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>91.587800000000016</v>
       </c>
       <c r="G13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>89.5</v>
       </c>
       <c r="I13" s="6">
@@ -4809,19 +4809,19 @@
         <v>2020</v>
       </c>
       <c r="B14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.0660000000000025</v>
       </c>
       <c r="C14" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30.061999999999898</v>
       </c>
       <c r="E14" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>92.063999999999965</v>
       </c>
       <c r="G14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="I14" s="6">
@@ -4833,19 +4833,19 @@
         <v>2021</v>
       </c>
       <c r="B15" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.0949999999999989</v>
       </c>
       <c r="C15" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31.575099999999566</v>
       </c>
       <c r="E15" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>92.540200000000027</v>
       </c>
       <c r="G15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>90.5</v>
       </c>
       <c r="I15" s="6">
@@ -4857,19 +4857,19 @@
         <v>2022</v>
       </c>
       <c r="B16" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.1240000000000023</v>
       </c>
       <c r="C16" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33.088199999999688</v>
       </c>
       <c r="E16" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>93.016399999999976</v>
       </c>
       <c r="G16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
       <c r="I16" s="6">
@@ -4881,19 +4881,19 @@
         <v>2023</v>
       </c>
       <c r="B17" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.1529999999999987</v>
       </c>
       <c r="C17" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34.60129999999981</v>
       </c>
       <c r="E17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>93.492600000000039</v>
       </c>
       <c r="G17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>91.5</v>
       </c>
       <c r="I17" s="6">
@@ -4905,19 +4905,19 @@
         <v>2024</v>
       </c>
       <c r="B18" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.1820000000000022</v>
       </c>
       <c r="C18" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36.114399999999478</v>
       </c>
       <c r="E18" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>93.968799999999987</v>
       </c>
       <c r="G18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
       <c r="I18" s="6">
@@ -4929,19 +4929,19 @@
         <v>2025</v>
       </c>
       <c r="B19" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.2109999999999985</v>
       </c>
       <c r="C19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37.6274999999996</v>
       </c>
       <c r="E19" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>94.44500000000005</v>
       </c>
       <c r="G19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>92.5</v>
       </c>
       <c r="I19" s="6">
@@ -4953,7 +4953,7 @@
         <v>2026</v>
       </c>
       <c r="B20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.240000000000002</v>
       </c>
       <c r="C20" s="6">
@@ -4977,19 +4977,19 @@
         <v>2027</v>
       </c>
       <c r="B21" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.2689999999999984</v>
       </c>
       <c r="C21" s="6">
-        <f t="shared" ref="C21:C29" si="4" xml:space="preserve"> 1.5131*A21- 3026.4</f>
+        <f t="shared" ref="C21:C24" si="5" xml:space="preserve"> 1.5131*A21- 3026.4</f>
         <v>40.653699999999844</v>
       </c>
       <c r="E21" s="6">
-        <f t="shared" ref="E21:E29" si="5" xml:space="preserve"> 0.4762*A21 - 869.86</f>
+        <f t="shared" ref="E21:E24" si="6" xml:space="preserve"> 0.4762*A21 - 869.86</f>
         <v>95.397400000000061</v>
       </c>
       <c r="G21">
-        <f t="shared" ref="G21:G29" si="6" xml:space="preserve"> 0.5*A21 - 920</f>
+        <f t="shared" ref="G21:G24" si="7" xml:space="preserve"> 0.5*A21 - 920</f>
         <v>93.5</v>
       </c>
       <c r="I21" s="6">
@@ -5001,19 +5001,19 @@
         <v>2028</v>
       </c>
       <c r="B22" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.2980000000000018</v>
       </c>
       <c r="C22" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42.166799999999512</v>
       </c>
       <c r="E22" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>95.87360000000001</v>
       </c>
       <c r="G22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>94</v>
       </c>
       <c r="I22" s="6">
@@ -5025,19 +5025,19 @@
         <v>2029</v>
       </c>
       <c r="B23" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3269999999999982</v>
       </c>
       <c r="C23" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43.679899999999634</v>
       </c>
       <c r="E23" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>96.349799999999959</v>
       </c>
       <c r="G23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>94.5</v>
       </c>
       <c r="I23" s="6">
@@ -5049,19 +5049,19 @@
         <v>2030</v>
       </c>
       <c r="B24" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3560000000000016</v>
       </c>
       <c r="C24" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45.192999999999756</v>
       </c>
       <c r="E24" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>96.826000000000022</v>
       </c>
       <c r="G24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>95</v>
       </c>
       <c r="I24" s="6">
